--- a/bioinfo-m2/Results/Eukaryota/Total_Animals.xlsx
+++ b/bioinfo-m2/Results/Eukaryota/Total_Animals.xlsx
@@ -34,7 +34,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -5492,31 +5492,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="38">
-        <v>6195.0</v>
+        <v>6205.0</v>
       </c>
       <c r="C2" t="n" s="39">
-        <v>2.567577649018974</v>
+        <v>2.5627258647392877</v>
       </c>
       <c r="D2" t="n" s="38">
-        <v>5952.0</v>
+        <v>5962.0</v>
       </c>
       <c r="E2" t="n" s="39">
-        <v>2.466863949469077</v>
+        <v>2.4623644811564276</v>
       </c>
       <c r="F2" t="n" s="38">
-        <v>7680.0</v>
+        <v>7696.0</v>
       </c>
       <c r="G2" t="n" s="39">
-        <v>3.1830502573794544</v>
+        <v>3.1785234899328856</v>
       </c>
       <c r="H2" t="n" s="38">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="I2" t="n" s="38">
-        <v>268.0</v>
+        <v>270.0</v>
       </c>
       <c r="J2" t="n" s="38">
-        <v>627.0</v>
+        <v>631.0</v>
       </c>
       <c r="M2" t="s" s="35">
         <v>0</v>
@@ -5530,31 +5530,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="40">
-        <v>6001.0</v>
+        <v>6016.0</v>
       </c>
       <c r="C3" t="n" s="41">
-        <v>2.4871724732466283</v>
+        <v>2.484667010841507</v>
       </c>
       <c r="D3" t="n" s="40">
-        <v>3280.0</v>
+        <v>3293.0</v>
       </c>
       <c r="E3" t="n" s="41">
-        <v>1.359427714089142</v>
+        <v>1.3600413009808983</v>
       </c>
       <c r="F3" t="n" s="40">
-        <v>7744.0</v>
+        <v>7764.0</v>
       </c>
       <c r="G3" t="n" s="41">
-        <v>3.2095756761909495</v>
+        <v>3.206608156943727</v>
       </c>
       <c r="H3" t="n" s="42">
-        <v>321.0</v>
+        <v>323.0</v>
       </c>
       <c r="I3" t="n" s="42">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="J3" t="n" s="42">
-        <v>649.0</v>
+        <v>652.0</v>
       </c>
     </row>
     <row r="4">
@@ -5562,37 +5562,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="38">
-        <v>855.0</v>
+        <v>857.0</v>
       </c>
       <c r="C4" t="n" s="39">
-        <v>0.3543630169348221</v>
+        <v>0.3539494062983996</v>
       </c>
       <c r="D4" t="n" s="38">
-        <v>3425.0</v>
+        <v>3435.0</v>
       </c>
       <c r="E4" t="n" s="39">
-        <v>1.4195243660839363</v>
+        <v>1.418688693856479</v>
       </c>
       <c r="F4" t="n" s="38">
-        <v>2060.0</v>
+        <v>2065.0</v>
       </c>
       <c r="G4" t="n" s="39">
-        <v>0.8537869179950098</v>
+        <v>0.8528652555498194</v>
       </c>
       <c r="H4" t="n" s="38">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="I4" t="n" s="38">
-        <v>693.0</v>
+        <v>695.0</v>
       </c>
       <c r="J4" t="n" s="38">
-        <v>314.0</v>
+        <v>316.0</v>
       </c>
       <c r="M4" t="s" s="35">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="33">
-        <v>603408.0</v>
+        <v>605527.0</v>
       </c>
     </row>
     <row r="5">
@@ -5600,31 +5600,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="40">
-        <v>5132.0</v>
+        <v>5137.0</v>
       </c>
       <c r="C5" t="n" s="41">
-        <v>2.1270070209467917</v>
+        <v>2.1216313887454827</v>
       </c>
       <c r="D5" t="n" s="40">
-        <v>3430.0</v>
+        <v>3433.0</v>
       </c>
       <c r="E5" t="n" s="41">
-        <v>1.4215966644285845</v>
+        <v>1.4178626742385132</v>
       </c>
       <c r="F5" t="n" s="40">
-        <v>14311.0</v>
+        <v>14338.0</v>
       </c>
       <c r="G5" t="n" s="41">
-        <v>5.931332322051741</v>
+        <v>5.9217346411977285</v>
       </c>
       <c r="H5" t="n" s="42">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="I5" t="n" s="42">
         <v>66.0</v>
       </c>
       <c r="J5" t="n" s="42">
-        <v>836.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="6">
@@ -5632,37 +5632,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="38">
-        <v>7971.0</v>
+        <v>7991.0</v>
       </c>
       <c r="C6" t="n" s="39">
-        <v>3.303658021037973</v>
+        <v>3.3003613835828602</v>
       </c>
       <c r="D6" t="n" s="38">
-        <v>4639.0</v>
+        <v>4658.0</v>
       </c>
       <c r="E6" t="n" s="39">
-        <v>1.9226784041644907</v>
+        <v>1.9237996902426433</v>
       </c>
       <c r="F6" t="n" s="38">
-        <v>3895.0</v>
+        <v>3906.0</v>
       </c>
       <c r="G6" t="n" s="39">
-        <v>1.6143204104808562</v>
+        <v>1.613216313887455</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>729.0</v>
+        <v>732.0</v>
       </c>
       <c r="I6" t="n" s="38">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="J6" t="n" s="38">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="M6" t="s" s="35">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="33">
-        <v>6001.0</v>
+        <v>6016.0</v>
       </c>
     </row>
     <row r="7">
@@ -5670,31 +5670,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="40">
-        <v>6112.0</v>
+        <v>6133.0</v>
       </c>
       <c r="C7" t="n" s="41">
-        <v>2.533177496497816</v>
+        <v>2.5329891584925144</v>
       </c>
       <c r="D7" t="n" s="40">
-        <v>5124.0</v>
+        <v>5143.0</v>
       </c>
       <c r="E7" t="n" s="41">
-        <v>2.123691343595355</v>
+        <v>2.1241094475993805</v>
       </c>
       <c r="F7" t="n" s="40">
-        <v>3493.0</v>
+        <v>3504.0</v>
       </c>
       <c r="G7" t="n" s="41">
-        <v>1.4477076235711503</v>
+        <v>1.4471863706763035</v>
       </c>
       <c r="H7" t="n" s="42">
-        <v>469.0</v>
+        <v>471.0</v>
       </c>
       <c r="I7" t="n" s="42">
-        <v>332.0</v>
+        <v>333.0</v>
       </c>
       <c r="J7" t="n" s="42">
-        <v>291.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="8">
@@ -5702,31 +5702,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="38">
-        <v>671.0</v>
+        <v>674.0</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>0.27810243785177263</v>
+        <v>0.2783686112545173</v>
       </c>
       <c r="D8" t="n" s="38">
-        <v>2310.0</v>
+        <v>2315.0</v>
       </c>
       <c r="E8" t="n" s="39">
-        <v>0.9574018352274141</v>
+        <v>0.95611770779556</v>
       </c>
       <c r="F8" t="n" s="38">
-        <v>1089.0</v>
+        <v>1092.0</v>
       </c>
       <c r="G8" t="n" s="39">
-        <v>0.4513465794643523</v>
+        <v>0.45100671140939597</v>
       </c>
       <c r="H8" t="n" s="38">
-        <v>277.0</v>
+        <v>280.0</v>
       </c>
       <c r="I8" t="n" s="38">
-        <v>676.0</v>
+        <v>679.0</v>
       </c>
       <c r="J8" t="n" s="38">
-        <v>354.0</v>
+        <v>355.0</v>
       </c>
       <c r="M8" t="s" s="35">
         <v>4</v>
@@ -5740,31 +5740,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="40">
-        <v>4335.0</v>
+        <v>4350.0</v>
       </c>
       <c r="C9" t="n" s="41">
-        <v>1.7966826648098875</v>
+        <v>1.7965926690758904</v>
       </c>
       <c r="D9" t="n" s="40">
-        <v>3830.0</v>
+        <v>3848.0</v>
       </c>
       <c r="E9" t="n" s="41">
-        <v>1.5873805320004308</v>
+        <v>1.5892617449664428</v>
       </c>
       <c r="F9" t="n" s="40">
-        <v>8312.0</v>
+        <v>8331.0</v>
       </c>
       <c r="G9" t="n" s="41">
-        <v>3.444988768142972</v>
+        <v>3.4407847186370675</v>
       </c>
       <c r="H9" t="n" s="42">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="I9" t="n" s="42">
-        <v>137.0</v>
+        <v>139.0</v>
       </c>
       <c r="J9" t="n" s="42">
-        <v>658.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="10">
@@ -5775,19 +5775,19 @@
         <v>1102.0</v>
       </c>
       <c r="C10" t="n" s="39">
-        <v>0.45673455516043737</v>
+        <v>0.45513680949922564</v>
       </c>
       <c r="D10" t="n" s="38">
-        <v>642.0</v>
+        <v>643.0</v>
       </c>
       <c r="E10" t="n" s="39">
-        <v>0.26608310745281377</v>
+        <v>0.26556530717604543</v>
       </c>
       <c r="F10" t="n" s="38">
-        <v>5017.0</v>
+        <v>5038.0</v>
       </c>
       <c r="G10" t="n" s="39">
-        <v>2.079344159019886</v>
+        <v>2.080743417656169</v>
       </c>
       <c r="H10" t="n" s="38">
         <v>197.0</v>
@@ -5796,7 +5796,7 @@
         <v>114.0</v>
       </c>
       <c r="J10" t="n" s="38">
-        <v>765.0</v>
+        <v>769.0</v>
       </c>
       <c r="M10" t="s" s="35">
         <v>5</v>
@@ -5810,31 +5810,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="40">
-        <v>2309.0</v>
+        <v>2315.0</v>
       </c>
       <c r="C11" t="n" s="41">
-        <v>0.9569873755584845</v>
+        <v>0.95611770779556</v>
       </c>
       <c r="D11" t="n" s="40">
-        <v>643.0</v>
+        <v>645.0</v>
       </c>
       <c r="E11" t="n" s="41">
-        <v>0.2664975671217434</v>
+        <v>0.26639132679401134</v>
       </c>
       <c r="F11" t="n" s="40">
-        <v>7257.0</v>
+        <v>7287.0</v>
       </c>
       <c r="G11" t="n" s="41">
-        <v>3.007733817422227</v>
+        <v>3.009602478058854</v>
       </c>
       <c r="H11" t="n" s="42">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="I11" t="n" s="42">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="J11" t="n" s="42">
-        <v>809.0</v>
+        <v>813.0</v>
       </c>
     </row>
     <row r="12">
@@ -5845,28 +5845,28 @@
         <v>253.0</v>
       </c>
       <c r="C12" t="n" s="39">
-        <v>0.10485829623919296</v>
+        <v>0.10449148167268973</v>
       </c>
       <c r="D12" t="n" s="38">
-        <v>675.0</v>
+        <v>677.0</v>
       </c>
       <c r="E12" t="n" s="39">
-        <v>0.27976027652749114</v>
+        <v>0.2796076406814662</v>
       </c>
       <c r="F12" t="n" s="38">
-        <v>5920.0</v>
+        <v>5946.0</v>
       </c>
       <c r="G12" t="n" s="39">
-        <v>2.453601240063329</v>
+        <v>2.4557563242127</v>
       </c>
       <c r="H12" t="n" s="38">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="I12" t="n" s="38">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="J12" t="n" s="38">
-        <v>866.0</v>
+        <v>870.0</v>
       </c>
       <c r="M12" t="s" s="35">
         <v>7</v>
@@ -5880,31 +5880,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="40">
-        <v>1251.0</v>
+        <v>1253.0</v>
       </c>
       <c r="C13" t="n" s="41">
-        <v>0.5184890458309501</v>
+        <v>0.5175012906556531</v>
       </c>
       <c r="D13" t="n" s="40">
-        <v>680.0</v>
+        <v>685.0</v>
       </c>
       <c r="E13" t="n" s="41">
-        <v>0.2818325748721392</v>
+        <v>0.2829117191533299</v>
       </c>
       <c r="F13" t="n" s="40">
-        <v>4708.0</v>
+        <v>4736.0</v>
       </c>
       <c r="G13" t="n" s="41">
-        <v>1.9512761213206342</v>
+        <v>1.9560144553433145</v>
       </c>
       <c r="H13" t="n" s="42">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="I13" t="n" s="42">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="J13" t="n" s="42">
-        <v>824.0</v>
+        <v>828.0</v>
       </c>
     </row>
     <row r="14">
@@ -5912,31 +5912,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="38">
-        <v>11352.0</v>
+        <v>11366.0</v>
       </c>
       <c r="C14" t="n" s="39">
-        <v>4.704946161689006</v>
+        <v>4.694269488900361</v>
       </c>
       <c r="D14" t="n" s="38">
-        <v>4760.0</v>
+        <v>4766.0</v>
       </c>
       <c r="E14" t="n" s="39">
-        <v>1.9728280241049743</v>
+        <v>1.9684047496128034</v>
       </c>
       <c r="F14" t="n" s="38">
-        <v>2786.0</v>
+        <v>2791.0</v>
       </c>
       <c r="G14" t="n" s="39">
-        <v>1.1546846376379114</v>
+        <v>1.1527103768714508</v>
       </c>
       <c r="H14" t="n" s="38">
-        <v>805.0</v>
+        <v>808.0</v>
       </c>
       <c r="I14" t="n" s="38">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="J14" t="n" s="38">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="15">
@@ -5944,31 +5944,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="40">
-        <v>8694.0</v>
+        <v>8709.0</v>
       </c>
       <c r="C15" t="n" s="41">
-        <v>3.603312361674085</v>
+        <v>3.596902426432628</v>
       </c>
       <c r="D15" t="n" s="40">
-        <v>2552.0</v>
+        <v>2562.0</v>
       </c>
       <c r="E15" t="n" s="41">
-        <v>1.0577010751083813</v>
+        <v>1.0581311306143522</v>
       </c>
       <c r="F15" t="n" s="40">
-        <v>4738.0</v>
+        <v>4748.0</v>
       </c>
       <c r="G15" t="n" s="41">
-        <v>1.963709911388523</v>
+        <v>1.9609705730511102</v>
       </c>
       <c r="H15" t="n" s="42">
-        <v>623.0</v>
+        <v>625.0</v>
       </c>
       <c r="I15" t="n" s="42">
-        <v>125.0</v>
+        <v>127.0</v>
       </c>
       <c r="J15" t="n" s="42">
-        <v>299.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="16">
@@ -5976,31 +5976,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="38">
-        <v>2836.0</v>
+        <v>2860.0</v>
       </c>
       <c r="C16" t="n" s="39">
-        <v>1.1754076210843922</v>
+        <v>1.181208053691275</v>
       </c>
       <c r="D16" t="n" s="38">
-        <v>2648.0</v>
+        <v>2661.0</v>
       </c>
       <c r="E16" t="n" s="39">
-        <v>1.0974892033256243</v>
+        <v>1.0990191017036655</v>
       </c>
       <c r="F16" t="n" s="38">
-        <v>3324.0</v>
+        <v>3332.0</v>
       </c>
       <c r="G16" t="n" s="39">
-        <v>1.3776639395220451</v>
+        <v>1.3761486835312338</v>
       </c>
       <c r="H16" t="n" s="38">
-        <v>334.0</v>
+        <v>337.0</v>
       </c>
       <c r="I16" t="n" s="38">
         <v>225.0</v>
       </c>
       <c r="J16" t="n" s="38">
-        <v>541.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="17">
@@ -6008,31 +6008,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="40">
-        <v>12878.0</v>
+        <v>12911.0</v>
       </c>
       <c r="C17" t="n" s="41">
-        <v>5.337411616475601</v>
+        <v>5.33236964377904</v>
       </c>
       <c r="D17" t="n" s="40">
-        <v>3631.0</v>
+        <v>3636.0</v>
       </c>
       <c r="E17" t="n" s="41">
-        <v>1.5049030578834375</v>
+        <v>1.5017036654620548</v>
       </c>
       <c r="F17" t="n" s="40">
-        <v>10979.0</v>
+        <v>11000.0</v>
       </c>
       <c r="G17" t="n" s="41">
-        <v>4.550352705178259</v>
+        <v>4.543107898812597</v>
       </c>
       <c r="H17" t="n" s="42">
-        <v>553.0</v>
+        <v>556.0</v>
       </c>
       <c r="I17" t="n" s="42">
         <v>16.0</v>
       </c>
       <c r="J17" t="n" s="42">
-        <v>418.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="18">
@@ -6040,31 +6040,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="38">
-        <v>5422.0</v>
+        <v>5434.0</v>
       </c>
       <c r="C18" t="n" s="39">
-        <v>2.2472003249363803</v>
+        <v>2.244295302013423</v>
       </c>
       <c r="D18" t="n" s="38">
-        <v>8048.0</v>
+        <v>8061.0</v>
       </c>
       <c r="E18" t="n" s="39">
-        <v>3.3355714155455534</v>
+        <v>3.3292720702116676</v>
       </c>
       <c r="F18" t="n" s="38">
-        <v>4188.0</v>
+        <v>4195.0</v>
       </c>
       <c r="G18" t="n" s="39">
-        <v>1.735757093477234</v>
+        <v>1.7325761486835314</v>
       </c>
       <c r="H18" t="n" s="38">
-        <v>287.0</v>
+        <v>289.0</v>
       </c>
       <c r="I18" t="n" s="38">
-        <v>645.0</v>
+        <v>648.0</v>
       </c>
       <c r="J18" t="n" s="38">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="19">
@@ -6072,31 +6072,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="40">
-        <v>3787.0</v>
+        <v>3805.0</v>
       </c>
       <c r="C19" t="n" s="41">
-        <v>1.5695587662364576</v>
+        <v>1.5715023231801757</v>
       </c>
       <c r="D19" t="n" s="40">
-        <v>4155.0</v>
+        <v>4165.0</v>
       </c>
       <c r="E19" t="n" s="41">
-        <v>1.7220799244025566</v>
+        <v>1.7201858544140425</v>
       </c>
       <c r="F19" t="n" s="40">
-        <v>5653.0</v>
+        <v>5678.0</v>
       </c>
       <c r="G19" t="n" s="41">
-        <v>2.342940508459122</v>
+        <v>2.345069695405266</v>
       </c>
       <c r="H19" t="n" s="42">
-        <v>280.0</v>
+        <v>281.0</v>
       </c>
       <c r="I19" t="n" s="42">
-        <v>373.0</v>
+        <v>374.0</v>
       </c>
       <c r="J19" t="n" s="42">
-        <v>478.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="20">
@@ -6104,28 +6104,28 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="38">
-        <v>723.0</v>
+        <v>724.0</v>
       </c>
       <c r="C20" t="n" s="39">
-        <v>0.2996543406361127</v>
+        <v>0.29901910170366547</v>
       </c>
       <c r="D20" t="n" s="38">
-        <v>5896.0</v>
+        <v>5931.0</v>
       </c>
       <c r="E20" t="n" s="39">
-        <v>2.4436542080090184</v>
+        <v>2.4495611770779555</v>
       </c>
       <c r="F20" t="n" s="38">
-        <v>1045.0</v>
+        <v>1046.0</v>
       </c>
       <c r="G20" t="n" s="39">
-        <v>0.4331103540314492</v>
+        <v>0.43200826019617966</v>
       </c>
       <c r="H20" t="n" s="38">
         <v>138.0</v>
       </c>
       <c r="I20" t="n" s="38">
-        <v>843.0</v>
+        <v>847.0</v>
       </c>
       <c r="J20" t="n" s="38">
         <v>119.0</v>
@@ -6136,31 +6136,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="40">
-        <v>2416.0</v>
+        <v>2427.0</v>
       </c>
       <c r="C21" t="n" s="41">
-        <v>1.0013345601339534</v>
+        <v>1.002374806401652</v>
       </c>
       <c r="D21" t="n" s="40">
-        <v>5701.0</v>
+        <v>5714.0</v>
       </c>
       <c r="E21" t="n" s="41">
-        <v>2.3628345725677433</v>
+        <v>2.3599380485286527</v>
       </c>
       <c r="F21" t="n" s="40">
-        <v>7914.0</v>
+        <v>7931.0</v>
       </c>
       <c r="G21" t="n" s="41">
-        <v>3.2800338199089847</v>
+        <v>3.2755807950438824</v>
       </c>
       <c r="H21" t="n" s="42">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="I21" t="n" s="42">
-        <v>400.0</v>
+        <v>402.0</v>
       </c>
       <c r="J21" t="n" s="42">
-        <v>532.0</v>
+        <v>534.0</v>
       </c>
     </row>
     <row r="22">
@@ -6168,31 +6168,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="38">
-        <v>4772.0</v>
+        <v>4783.0</v>
       </c>
       <c r="C22" t="n" s="39">
-        <v>1.9778015401321298</v>
+        <v>1.9754259163655137</v>
       </c>
       <c r="D22" t="n" s="38">
-        <v>5456.0</v>
+        <v>5471.0</v>
       </c>
       <c r="E22" t="n" s="39">
-        <v>2.2612919536799874</v>
+        <v>2.2595766649457927</v>
       </c>
       <c r="F22" t="n" s="38">
-        <v>4362.0</v>
+        <v>4379.0</v>
       </c>
       <c r="G22" t="n" s="39">
-        <v>1.8078730758709871</v>
+        <v>1.8085699535363966</v>
       </c>
       <c r="H22" t="n" s="38">
-        <v>422.0</v>
+        <v>424.0</v>
       </c>
       <c r="I22" t="n" s="38">
-        <v>398.0</v>
+        <v>400.0</v>
       </c>
       <c r="J22" t="n" s="38">
-        <v>268.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="23">
@@ -6200,31 +6200,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="40">
-        <v>3507.0</v>
+        <v>3522.0</v>
       </c>
       <c r="C23" t="n" s="41">
-        <v>1.453510058936165</v>
+        <v>1.454620547237997</v>
       </c>
       <c r="D23" t="n" s="40">
-        <v>6506.0</v>
+        <v>6533.0</v>
       </c>
       <c r="E23" t="n" s="41">
-        <v>2.6964746060560847</v>
+        <v>2.6981930820856994</v>
       </c>
       <c r="F23" t="n" s="40">
-        <v>4825.0</v>
+        <v>4845.0</v>
       </c>
       <c r="G23" t="n" s="41">
-        <v>1.9997679025853994</v>
+        <v>2.0010325245224574</v>
       </c>
       <c r="H23" t="n" s="42">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="I23" t="n" s="42">
-        <v>622.0</v>
+        <v>626.0</v>
       </c>
       <c r="J23" t="n" s="42">
-        <v>346.0</v>
+        <v>348.0</v>
       </c>
     </row>
     <row r="24">
@@ -6232,31 +6232,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="38">
-        <v>499.0</v>
+        <v>502.0</v>
       </c>
       <c r="C24" t="n" s="39">
-        <v>0.2068153747958786</v>
+        <v>0.20733092410944762</v>
       </c>
       <c r="D24" t="n" s="38">
-        <v>2463.0</v>
+        <v>2474.0</v>
       </c>
       <c r="E24" t="n" s="39">
-        <v>1.0208141645736453</v>
+        <v>1.0217862674238514</v>
       </c>
       <c r="F24" t="n" s="38">
-        <v>1479.0</v>
+        <v>1483.0</v>
       </c>
       <c r="G24" t="n" s="39">
-        <v>0.6129858503469027</v>
+        <v>0.6124935467217346</v>
       </c>
       <c r="H24" t="n" s="38">
-        <v>273.0</v>
+        <v>275.0</v>
       </c>
       <c r="I24" t="n" s="38">
-        <v>699.0</v>
+        <v>701.0</v>
       </c>
       <c r="J24" t="n" s="38">
-        <v>429.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="25">
@@ -6264,31 +6264,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="40">
-        <v>3087.0</v>
+        <v>3103.0</v>
       </c>
       <c r="C25" t="n" s="41">
-        <v>1.2794369979857259</v>
+        <v>1.2815694372741353</v>
       </c>
       <c r="D25" t="n" s="40">
-        <v>4985.0</v>
+        <v>5007.0</v>
       </c>
       <c r="E25" t="n" s="41">
-        <v>2.066081449614138</v>
+        <v>2.067940113577697</v>
       </c>
       <c r="F25" t="n" s="40">
-        <v>11346.0</v>
+        <v>11381.0</v>
       </c>
       <c r="G25" t="n" s="41">
-        <v>4.702459403675428</v>
+        <v>4.700464636035106</v>
       </c>
       <c r="H25" t="n" s="42">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="I25" t="n" s="42">
-        <v>139.0</v>
+        <v>141.0</v>
       </c>
       <c r="J25" t="n" s="42">
-        <v>606.0</v>
+        <v>608.0</v>
       </c>
     </row>
     <row r="26">
@@ -6296,31 +6296,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="38">
-        <v>2239.0</v>
+        <v>2245.0</v>
       </c>
       <c r="C26" t="n" s="39">
-        <v>0.9279751987334113</v>
+        <v>0.9272070211667528</v>
       </c>
       <c r="D26" t="n" s="38">
-        <v>573.0</v>
+        <v>576.0</v>
       </c>
       <c r="E26" t="n" s="39">
-        <v>0.23748539029667023</v>
+        <v>0.23789364997418688</v>
       </c>
       <c r="F26" t="n" s="38">
-        <v>1680.0</v>
+        <v>1685.0</v>
       </c>
       <c r="G26" t="n" s="39">
-        <v>0.6962922438017556</v>
+        <v>0.6959215281362933</v>
       </c>
       <c r="H26" t="n" s="38">
-        <v>612.0</v>
+        <v>616.0</v>
       </c>
       <c r="I26" t="n" s="38">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="J26" t="n" s="38">
-        <v>420.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="27">
@@ -6328,31 +6328,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="40">
-        <v>842.0</v>
+        <v>844.0</v>
       </c>
       <c r="C27" t="n" s="41">
-        <v>0.34897504123873707</v>
+        <v>0.34858027878162107</v>
       </c>
       <c r="D27" t="n" s="40">
-        <v>501.0</v>
+        <v>505.0</v>
       </c>
       <c r="E27" t="n" s="41">
-        <v>0.20764429413373786</v>
+        <v>0.20856995353639649</v>
       </c>
       <c r="F27" t="n" s="40">
-        <v>3059.0</v>
+        <v>3073.0</v>
       </c>
       <c r="G27" t="n" s="41">
-        <v>1.2678321272556967</v>
+        <v>1.2691791430046462</v>
       </c>
       <c r="H27" t="n" s="42">
-        <v>303.0</v>
+        <v>304.0</v>
       </c>
       <c r="I27" t="n" s="42">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c r="J27" t="n" s="42">
-        <v>790.0</v>
+        <v>793.0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="38">
-        <v>280.0</v>
+        <v>283.0</v>
       </c>
       <c r="C28" t="n" s="39">
-        <v>0.11604870730029261</v>
+        <v>0.11688177594217862</v>
       </c>
       <c r="D28" t="n" s="38">
-        <v>687.0</v>
+        <v>693.0</v>
       </c>
       <c r="E28" t="n" s="39">
-        <v>0.28473379255464654</v>
+        <v>0.28621579762519356</v>
       </c>
       <c r="F28" t="n" s="38">
-        <v>2195.0</v>
+        <v>2208.0</v>
       </c>
       <c r="G28" t="n" s="39">
-        <v>0.9097389733005081</v>
+        <v>0.911925658234383</v>
       </c>
       <c r="H28" t="n" s="38">
-        <v>295.0</v>
+        <v>296.0</v>
       </c>
       <c r="I28" t="n" s="38">
-        <v>378.0</v>
+        <v>380.0</v>
       </c>
       <c r="J28" t="n" s="38">
-        <v>785.0</v>
+        <v>788.0</v>
       </c>
     </row>
     <row r="29">
@@ -6392,31 +6392,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="40">
-        <v>535.0</v>
+        <v>539.0</v>
       </c>
       <c r="C29" t="n" s="41">
-        <v>0.2217359228773448</v>
+        <v>0.22261228704181726</v>
       </c>
       <c r="D29" t="n" s="40">
-        <v>519.0</v>
+        <v>522.0</v>
       </c>
       <c r="E29" t="n" s="41">
-        <v>0.21510456817447096</v>
+        <v>0.21559112028910685</v>
       </c>
       <c r="F29" t="n" s="40">
-        <v>1925.0</v>
+        <v>1933.0</v>
       </c>
       <c r="G29" t="n" s="41">
-        <v>0.7978348626895118</v>
+        <v>0.7983479607640681</v>
       </c>
       <c r="H29" t="n" s="42">
-        <v>347.0</v>
+        <v>349.0</v>
       </c>
       <c r="I29" t="n" s="42">
-        <v>314.0</v>
+        <v>317.0</v>
       </c>
       <c r="J29" t="n" s="42">
-        <v>736.0</v>
+        <v>738.0</v>
       </c>
     </row>
     <row r="30">
@@ -6424,28 +6424,28 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="38">
-        <v>12974.0</v>
+        <v>13009.0</v>
       </c>
       <c r="C30" t="n" s="39">
-        <v>5.377199744692844</v>
+        <v>5.37284460505937</v>
       </c>
       <c r="D30" t="n" s="38">
-        <v>5407.0</v>
+        <v>5419.0</v>
       </c>
       <c r="E30" t="n" s="39">
-        <v>2.2409834299024363</v>
+        <v>2.2381001548786785</v>
       </c>
       <c r="F30" t="n" s="38">
-        <v>2380.0</v>
+        <v>2392.0</v>
       </c>
       <c r="G30" t="n" s="39">
-        <v>0.9864140120524871</v>
+        <v>0.9879194630872483</v>
       </c>
       <c r="H30" t="n" s="38">
-        <v>707.0</v>
+        <v>711.0</v>
       </c>
       <c r="I30" t="n" s="38">
-        <v>247.0</v>
+        <v>248.0</v>
       </c>
       <c r="J30" t="n" s="38">
         <v>36.0</v>
@@ -6456,31 +6456,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="40">
-        <v>5827.0</v>
+        <v>5842.0</v>
       </c>
       <c r="C31" t="n" s="41">
-        <v>2.415056490852875</v>
+        <v>2.412803304078472</v>
       </c>
       <c r="D31" t="n" s="40">
-        <v>2878.0</v>
+        <v>2894.0</v>
       </c>
       <c r="E31" t="n" s="41">
-        <v>1.1928149271794362</v>
+        <v>1.1952503871966957</v>
       </c>
       <c r="F31" t="n" s="40">
-        <v>5117.0</v>
+        <v>5134.0</v>
       </c>
       <c r="G31" t="n" s="41">
-        <v>2.120790125912847</v>
+        <v>2.120392359318534</v>
       </c>
       <c r="H31" t="n" s="42">
-        <v>429.0</v>
+        <v>431.0</v>
       </c>
       <c r="I31" t="n" s="42">
-        <v>298.0</v>
+        <v>301.0</v>
       </c>
       <c r="J31" t="n" s="42">
-        <v>375.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="32">
@@ -6488,31 +6488,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="38">
-        <v>1960.0</v>
+        <v>1969.0</v>
       </c>
       <c r="C32" t="n" s="39">
-        <v>0.8123409511020483</v>
+        <v>0.8132163138874549</v>
       </c>
       <c r="D32" t="n" s="38">
-        <v>2891.0</v>
+        <v>2912.0</v>
       </c>
       <c r="E32" t="n" s="39">
-        <v>1.1982029028755212</v>
+        <v>1.2026845637583894</v>
       </c>
       <c r="F32" t="n" s="38">
-        <v>2483.0</v>
+        <v>2495.0</v>
       </c>
       <c r="G32" t="n" s="39">
-        <v>1.0291033579522375</v>
+        <v>1.0304594734124934</v>
       </c>
       <c r="H32" t="n" s="38">
-        <v>304.0</v>
+        <v>305.0</v>
       </c>
       <c r="I32" t="n" s="38">
-        <v>467.0</v>
+        <v>469.0</v>
       </c>
       <c r="J32" t="n" s="38">
-        <v>418.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="33">
@@ -6520,31 +6520,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="40">
-        <v>5650.0</v>
+        <v>5680.0</v>
       </c>
       <c r="C33" t="n" s="41">
-        <v>2.341697129452333</v>
+        <v>2.345895715023232</v>
       </c>
       <c r="D33" t="n" s="40">
-        <v>3932.0</v>
+        <v>3951.0</v>
       </c>
       <c r="E33" t="n" s="41">
-        <v>1.6296554182312522</v>
+        <v>1.6318017552916884</v>
       </c>
       <c r="F33" t="n" s="40">
-        <v>7383.0</v>
+        <v>7418.0</v>
       </c>
       <c r="G33" t="n" s="41">
-        <v>3.059955735707358</v>
+        <v>3.063706763035622</v>
       </c>
       <c r="H33" t="n" s="42">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="I33" t="n" s="42">
-        <v>220.0</v>
+        <v>222.0</v>
       </c>
       <c r="J33" t="n" s="42">
-        <v>527.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="34">
@@ -6552,28 +6552,28 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="38">
-        <v>4470.0</v>
+        <v>4484.0</v>
       </c>
       <c r="C34" t="n" s="39">
-        <v>1.8526347201153857</v>
+        <v>1.8519359834796074</v>
       </c>
       <c r="D34" t="n" s="38">
-        <v>3800.0</v>
+        <v>3817.0</v>
       </c>
       <c r="E34" t="n" s="39">
-        <v>1.5749467419325425</v>
+        <v>1.576458440887971</v>
       </c>
       <c r="F34" t="n" s="38">
-        <v>750.0</v>
+        <v>751.0</v>
       </c>
       <c r="G34" t="n" s="39">
-        <v>0.3108447516972123</v>
+        <v>0.3101703665462055</v>
       </c>
       <c r="H34" t="n" s="38">
-        <v>617.0</v>
+        <v>618.0</v>
       </c>
       <c r="I34" t="n" s="38">
-        <v>420.0</v>
+        <v>424.0</v>
       </c>
       <c r="J34" t="n" s="38">
         <v>57.0</v>
@@ -6584,28 +6584,28 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="40">
-        <v>2590.0</v>
+        <v>2605.0</v>
       </c>
       <c r="C35" t="n" s="41">
-        <v>1.0734505425277068</v>
+        <v>1.0758905524006195</v>
       </c>
       <c r="D35" t="n" s="40">
-        <v>2641.0</v>
+        <v>2652.0</v>
       </c>
       <c r="E35" t="n" s="41">
-        <v>1.094587985643117</v>
+        <v>1.0953020134228189</v>
       </c>
       <c r="F35" t="n" s="40">
-        <v>1033.0</v>
+        <v>1038.0</v>
       </c>
       <c r="G35" t="n" s="41">
-        <v>0.4281368380042938</v>
+        <v>0.42870418172431596</v>
       </c>
       <c r="H35" t="n" s="42">
-        <v>464.0</v>
+        <v>466.0</v>
       </c>
       <c r="I35" t="n" s="42">
-        <v>514.0</v>
+        <v>516.0</v>
       </c>
       <c r="J35" t="n" s="42">
         <v>195.0</v>
@@ -6616,31 +6616,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="38">
-        <v>1062.0</v>
+        <v>1069.0</v>
       </c>
       <c r="C36" t="n" s="39">
-        <v>0.44015616840325267</v>
+        <v>0.44150748580278787</v>
       </c>
       <c r="D36" t="n" s="38">
-        <v>3547.0</v>
+        <v>3574.0</v>
       </c>
       <c r="E36" t="n" s="39">
-        <v>1.4700884456933496</v>
+        <v>1.476097057305111</v>
       </c>
       <c r="F36" t="n" s="38">
         <v>330.0</v>
       </c>
       <c r="G36" t="n" s="39">
-        <v>0.13677169074677342</v>
+        <v>0.1362932369643779</v>
       </c>
       <c r="H36" t="n" s="38">
-        <v>318.0</v>
+        <v>321.0</v>
       </c>
       <c r="I36" t="n" s="38">
-        <v>785.0</v>
+        <v>788.0</v>
       </c>
       <c r="J36" t="n" s="38">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="37">
@@ -6648,31 +6648,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="40">
-        <v>2008.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C37" t="n" s="41">
-        <v>0.8322350152106698</v>
+        <v>0.8313887454827051</v>
       </c>
       <c r="D37" t="n" s="40">
-        <v>3933.0</v>
+        <v>3945.0</v>
       </c>
       <c r="E37" t="n" s="41">
-        <v>1.6300698779001817</v>
+        <v>1.6293236964377904</v>
       </c>
       <c r="F37" t="n" s="40">
-        <v>1571.0</v>
+        <v>1581.0</v>
       </c>
       <c r="G37" t="n" s="41">
-        <v>0.6511161398884274</v>
+        <v>0.6529685080020651</v>
       </c>
       <c r="H37" t="n" s="42">
         <v>203.0</v>
       </c>
       <c r="I37" t="n" s="42">
-        <v>688.0</v>
+        <v>690.0</v>
       </c>
       <c r="J37" t="n" s="42">
-        <v>236.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="38">
@@ -6680,28 +6680,28 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>5065.0</v>
+        <v>5091.0</v>
       </c>
       <c r="C38" t="n" s="39">
-        <v>2.0992382231285074</v>
+        <v>2.1026329375322663</v>
       </c>
       <c r="D38" t="n" s="38">
-        <v>1703.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E38" t="n" s="39">
-        <v>0.7058248161871369</v>
+        <v>0.7062467733608673</v>
       </c>
       <c r="F38" t="n" s="38">
-        <v>659.0</v>
+        <v>661.0</v>
       </c>
       <c r="G38" t="n" s="39">
-        <v>0.27312892182461723</v>
+        <v>0.2729994837377388</v>
       </c>
       <c r="H38" t="n" s="38">
-        <v>832.0</v>
+        <v>835.0</v>
       </c>
       <c r="I38" t="n" s="38">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="J38" t="n" s="38">
         <v>148.0</v>
@@ -6712,31 +6712,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="40">
-        <v>5988.0</v>
+        <v>6015.0</v>
       </c>
       <c r="C39" t="n" s="41">
-        <v>2.481784497550543</v>
+        <v>2.4842540010325243</v>
       </c>
       <c r="D39" t="n" s="40">
-        <v>2814.0</v>
+        <v>2822.0</v>
       </c>
       <c r="E39" t="n" s="41">
-        <v>1.1662895083679408</v>
+        <v>1.1655136809499227</v>
       </c>
       <c r="F39" t="n" s="40">
-        <v>979.0</v>
+        <v>983.0</v>
       </c>
       <c r="G39" t="n" s="41">
-        <v>0.40575601588209453</v>
+        <v>0.40598864223025294</v>
       </c>
       <c r="H39" t="n" s="42">
-        <v>706.0</v>
+        <v>709.0</v>
       </c>
       <c r="I39" t="n" s="42">
         <v>192.0</v>
       </c>
       <c r="J39" t="n" s="42">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="40">
@@ -6744,31 +6744,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="38">
-        <v>593.0</v>
+        <v>601.0</v>
       </c>
       <c r="C40" t="n" s="39">
-        <v>0.24577458367526253</v>
+        <v>0.24821889519876095</v>
       </c>
       <c r="D40" t="n" s="38">
-        <v>705.0</v>
+        <v>709.0</v>
       </c>
       <c r="E40" t="n" s="39">
-        <v>0.2921940665953796</v>
+        <v>0.292823954568921</v>
       </c>
       <c r="F40" t="n" s="38">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="G40" t="n" s="39">
-        <v>0.08910882881986754</v>
+        <v>0.08921011874032007</v>
       </c>
       <c r="H40" t="n" s="38">
-        <v>571.0</v>
+        <v>574.0</v>
       </c>
       <c r="I40" t="n" s="38">
-        <v>705.0</v>
+        <v>708.0</v>
       </c>
       <c r="J40" t="n" s="38">
-        <v>437.0</v>
+        <v>439.0</v>
       </c>
     </row>
     <row r="41">
@@ -6776,31 +6776,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="40">
-        <v>3838.0</v>
+        <v>3859.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.590696209351868</v>
+        <v>1.5938048528652555</v>
       </c>
       <c r="D41" t="n" s="40">
-        <v>2279.0</v>
+        <v>2289.0</v>
       </c>
       <c r="E41" t="n" s="41">
-        <v>0.944553585490596</v>
+        <v>0.9453794527620031</v>
       </c>
       <c r="F41" t="n" s="40">
-        <v>1446.0</v>
+        <v>1455.0</v>
       </c>
       <c r="G41" t="n" s="41">
-        <v>0.5993086812722254</v>
+        <v>0.6009292720702116</v>
       </c>
       <c r="H41" t="n" s="42">
-        <v>622.0</v>
+        <v>626.0</v>
       </c>
       <c r="I41" t="n" s="42">
         <v>328.0</v>
       </c>
       <c r="J41" t="n" s="42">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="42">
@@ -6808,31 +6808,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="38">
-        <v>5378.0</v>
+        <v>5411.0</v>
       </c>
       <c r="C42" t="n" s="39">
-        <v>2.2289640995034774</v>
+        <v>2.2347960764068144</v>
       </c>
       <c r="D42" t="n" s="38">
-        <v>492.0</v>
+        <v>494.0</v>
       </c>
       <c r="E42" t="n" s="39">
-        <v>0.20391415711337127</v>
+        <v>0.20402684563758391</v>
       </c>
       <c r="F42" t="n" s="38">
-        <v>687.0</v>
+        <v>689.0</v>
       </c>
       <c r="G42" t="n" s="39">
-        <v>0.28473379255464654</v>
+        <v>0.28456375838926173</v>
       </c>
       <c r="H42" t="n" s="38">
-        <v>842.0</v>
+        <v>846.0</v>
       </c>
       <c r="I42" t="n" s="38">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="J42" t="n" s="38">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="43">
@@ -6840,31 +6840,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="40">
-        <v>3173.0</v>
+        <v>3192.0</v>
       </c>
       <c r="C43" t="n" s="41">
-        <v>1.3150805295136732</v>
+        <v>1.318327310273619</v>
       </c>
       <c r="D43" t="n" s="40">
-        <v>563.0</v>
+        <v>564.0</v>
       </c>
       <c r="E43" t="n" s="41">
-        <v>0.23334079360737406</v>
+        <v>0.23293753226639133</v>
       </c>
       <c r="F43" t="n" s="40">
-        <v>1576.0</v>
+        <v>1590.0</v>
       </c>
       <c r="G43" t="n" s="41">
-        <v>0.6531884382330756</v>
+        <v>0.6566855962829118</v>
       </c>
       <c r="H43" t="n" s="42">
-        <v>719.0</v>
+        <v>722.0</v>
       </c>
       <c r="I43" t="n" s="42">
-        <v>259.0</v>
+        <v>260.0</v>
       </c>
       <c r="J43" t="n" s="42">
-        <v>399.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="44">
@@ -6872,31 +6872,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="38">
-        <v>1860.0</v>
+        <v>1877.0</v>
       </c>
       <c r="C44" t="n" s="39">
-        <v>0.7708949842090866</v>
+        <v>0.7752194114610222</v>
       </c>
       <c r="D44" t="n" s="38">
-        <v>1201.0</v>
+        <v>1213.0</v>
       </c>
       <c r="E44" t="n" s="39">
-        <v>0.4977660623844694</v>
+        <v>0.5009808982963345</v>
       </c>
       <c r="F44" t="n" s="38">
-        <v>1380.0</v>
+        <v>1399.0</v>
       </c>
       <c r="G44" t="n" s="39">
-        <v>0.5719543431228707</v>
+        <v>0.5778007227671658</v>
       </c>
       <c r="H44" t="n" s="38">
-        <v>689.0</v>
+        <v>692.0</v>
       </c>
       <c r="I44" t="n" s="38">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="J44" t="n" s="38">
-        <v>564.0</v>
+        <v>568.0</v>
       </c>
     </row>
     <row r="45">
@@ -6904,31 +6904,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="40">
-        <v>2212.0</v>
+        <v>2220.0</v>
       </c>
       <c r="C45" t="n" s="41">
-        <v>0.9167847876723115</v>
+        <v>0.9168817759421787</v>
       </c>
       <c r="D45" t="n" s="40">
-        <v>995.0</v>
+        <v>1001.0</v>
       </c>
       <c r="E45" t="n" s="41">
-        <v>0.4123873705849683</v>
+        <v>0.4134228187919463</v>
       </c>
       <c r="F45" t="n" s="40">
-        <v>1060.0</v>
+        <v>1069.0</v>
       </c>
       <c r="G45" t="n" s="41">
-        <v>0.43932724906539344</v>
+        <v>0.44150748580278787</v>
       </c>
       <c r="H45" t="n" s="42">
-        <v>728.0</v>
+        <v>731.0</v>
       </c>
       <c r="I45" t="n" s="42">
-        <v>335.0</v>
+        <v>336.0</v>
       </c>
       <c r="J45" t="n" s="42">
-        <v>353.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="46">
@@ -6936,31 +6936,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="38">
-        <v>4787.0</v>
+        <v>4804.0</v>
       </c>
       <c r="C46" t="n" s="39">
-        <v>1.984018435166074</v>
+        <v>1.984099122354156</v>
       </c>
       <c r="D46" t="n" s="38">
-        <v>1312.0</v>
+        <v>1316.0</v>
       </c>
       <c r="E46" t="n" s="39">
-        <v>0.5437710856356568</v>
+        <v>0.5435209086215798</v>
       </c>
       <c r="F46" t="n" s="38">
-        <v>661.0</v>
+        <v>664.0</v>
       </c>
       <c r="G46" t="n" s="39">
-        <v>0.2739578411624765</v>
+        <v>0.27423851316468767</v>
       </c>
       <c r="H46" t="n" s="38">
-        <v>838.0</v>
+        <v>841.0</v>
       </c>
       <c r="I46" t="n" s="38">
-        <v>160.0</v>
+        <v>162.0</v>
       </c>
       <c r="J46" t="n" s="38">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="47">
@@ -6968,28 +6968,28 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="40">
-        <v>2090.0</v>
+        <v>2106.0</v>
       </c>
       <c r="C47" t="n" s="41">
-        <v>0.8662207080628984</v>
+        <v>0.8697986577181208</v>
       </c>
       <c r="D47" t="n" s="40">
-        <v>1150.0</v>
+        <v>1152.0</v>
       </c>
       <c r="E47" t="n" s="41">
-        <v>0.4766286192690589</v>
+        <v>0.47578729994837377</v>
       </c>
       <c r="F47" t="n" s="40">
-        <v>902.0</v>
+        <v>904.0</v>
       </c>
       <c r="G47" t="n" s="41">
-        <v>0.3738426213745141</v>
+        <v>0.37336086732059887</v>
       </c>
       <c r="H47" t="n" s="42">
-        <v>623.0</v>
+        <v>627.0</v>
       </c>
       <c r="I47" t="n" s="42">
-        <v>410.0</v>
+        <v>411.0</v>
       </c>
       <c r="J47" t="n" s="42">
         <v>346.0</v>
@@ -7000,31 +7000,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="38">
-        <v>1120.0</v>
+        <v>1134.0</v>
       </c>
       <c r="C48" t="n" s="39">
-        <v>0.46419482920117044</v>
+        <v>0.46835312338668045</v>
       </c>
       <c r="D48" t="n" s="38">
-        <v>1096.0</v>
+        <v>1105.0</v>
       </c>
       <c r="E48" t="n" s="39">
-        <v>0.4542477971468596</v>
+        <v>0.45637583892617445</v>
       </c>
       <c r="F48" t="n" s="38">
-        <v>606.0</v>
+        <v>612.0</v>
       </c>
       <c r="G48" t="n" s="39">
-        <v>0.25116255937134757</v>
+        <v>0.2527620030975736</v>
       </c>
       <c r="H48" t="n" s="38">
-        <v>532.0</v>
+        <v>534.0</v>
       </c>
       <c r="I48" t="n" s="38">
-        <v>602.0</v>
+        <v>603.0</v>
       </c>
       <c r="J48" t="n" s="38">
-        <v>404.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="49">
@@ -7032,31 +7032,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="40">
-        <v>3121.0</v>
+        <v>3141.0</v>
       </c>
       <c r="C49" t="n" s="41">
-        <v>1.293528626729333</v>
+        <v>1.2972638100154879</v>
       </c>
       <c r="D49" t="n" s="40">
-        <v>1490.0</v>
+        <v>1493.0</v>
       </c>
       <c r="E49" t="n" s="41">
-        <v>0.6175449067051285</v>
+        <v>0.6166236448115643</v>
       </c>
       <c r="F49" t="n" s="40">
-        <v>1697.0</v>
+        <v>1715.0</v>
       </c>
       <c r="G49" t="n" s="41">
-        <v>0.7033380581735592</v>
+        <v>0.7083118224057822</v>
       </c>
       <c r="H49" t="n" s="42">
-        <v>651.0</v>
+        <v>653.0</v>
       </c>
       <c r="I49" t="n" s="42">
-        <v>317.0</v>
+        <v>318.0</v>
       </c>
       <c r="J49" t="n" s="42">
-        <v>340.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="50">
@@ -7070,25 +7070,25 @@
         <v>0.0</v>
       </c>
       <c r="D50" t="n" s="38">
-        <v>13995.0</v>
+        <v>14023.0</v>
       </c>
       <c r="E50" t="n" s="39">
-        <v>5.800363066669982</v>
+        <v>5.791636551368095</v>
       </c>
       <c r="F50" t="n" s="38">
-        <v>5565.0</v>
+        <v>5573.0</v>
       </c>
       <c r="G50" t="n" s="39">
-        <v>2.3064680575933156</v>
+        <v>2.3017036654620546</v>
       </c>
       <c r="H50" t="n" s="38">
         <v>4.0</v>
       </c>
       <c r="I50" t="n" s="38">
-        <v>856.0</v>
+        <v>860.0</v>
       </c>
       <c r="J50" t="n" s="38">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="51">
@@ -7096,31 +7096,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="40">
-        <v>3525.0</v>
+        <v>3538.0</v>
       </c>
       <c r="C51" t="n" s="41">
-        <v>1.460970332976898</v>
+        <v>1.4612287041817245</v>
       </c>
       <c r="D51" t="n" s="40">
-        <v>6713.0</v>
+        <v>6723.0</v>
       </c>
       <c r="E51" t="n" s="41">
-        <v>2.7822677575245156</v>
+        <v>2.776664945792463</v>
       </c>
       <c r="F51" t="n" s="40">
-        <v>4659.0</v>
+        <v>4668.0</v>
       </c>
       <c r="G51" t="n" s="41">
-        <v>1.9309675975430831</v>
+        <v>1.927929788332473</v>
       </c>
       <c r="H51" t="n" s="42">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="I51" t="n" s="42">
-        <v>631.0</v>
+        <v>633.0</v>
       </c>
       <c r="J51" t="n" s="42">
-        <v>280.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="52">
@@ -7134,22 +7134,22 @@
         <v>0.0</v>
       </c>
       <c r="D52" t="n" s="38">
-        <v>10034.0</v>
+        <v>10067.0</v>
       </c>
       <c r="E52" t="n" s="39">
-        <v>4.158688318039772</v>
+        <v>4.157769747031493</v>
       </c>
       <c r="F52" t="n" s="38">
-        <v>1480.0</v>
+        <v>1482.0</v>
       </c>
       <c r="G52" t="n" s="39">
-        <v>0.6134003100158323</v>
+        <v>0.6120805369127517</v>
       </c>
       <c r="H52" t="n" s="38">
         <v>44.0</v>
       </c>
       <c r="I52" t="n" s="38">
-        <v>868.0</v>
+        <v>872.0</v>
       </c>
       <c r="J52" t="n" s="38">
         <v>90.0</v>
@@ -7160,31 +7160,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="40">
-        <v>4035.0</v>
+        <v>4048.0</v>
       </c>
       <c r="C53" t="n" s="41">
-        <v>1.6723447641310025</v>
+        <v>1.6718637067630358</v>
       </c>
       <c r="D53" t="n" s="40">
-        <v>8763.0</v>
+        <v>8779.0</v>
       </c>
       <c r="E53" t="n" s="41">
-        <v>3.631910078830229</v>
+        <v>3.6258131130614353</v>
       </c>
       <c r="F53" t="n" s="40">
-        <v>11109.0</v>
+        <v>11138.0</v>
       </c>
       <c r="G53" t="n" s="41">
-        <v>4.60423246213911</v>
+        <v>4.600103252452246</v>
       </c>
       <c r="H53" t="n" s="42">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="I53" t="n" s="42">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
       <c r="J53" t="n" s="42">
-        <v>580.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="54">
@@ -7192,31 +7192,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="38">
-        <v>5992.0</v>
+        <v>6006.0</v>
       </c>
       <c r="C54" t="n" s="39">
-        <v>2.4834423362262616</v>
+        <v>2.480536912751678</v>
       </c>
       <c r="D54" t="n" s="38">
-        <v>7002.0</v>
+        <v>7011.0</v>
       </c>
       <c r="E54" t="n" s="39">
-        <v>2.9020466018451745</v>
+        <v>2.8956117707795563</v>
       </c>
       <c r="F54" t="n" s="38">
-        <v>3432.0</v>
+        <v>3444.0</v>
       </c>
       <c r="G54" t="n" s="39">
-        <v>1.4224255837664437</v>
+        <v>1.4224057821373257</v>
       </c>
       <c r="H54" t="n" s="38">
-        <v>411.0</v>
+        <v>414.0</v>
       </c>
       <c r="I54" t="n" s="38">
-        <v>451.0</v>
+        <v>452.0</v>
       </c>
       <c r="J54" t="n" s="38">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="55">
@@ -7224,31 +7224,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="40">
-        <v>3803.0</v>
+        <v>3815.0</v>
       </c>
       <c r="C55" t="n" s="41">
-        <v>1.5761901209393314</v>
+        <v>1.575632421270005</v>
       </c>
       <c r="D55" t="n" s="40">
-        <v>7568.0</v>
+        <v>7590.0</v>
       </c>
       <c r="E55" t="n" s="41">
-        <v>3.136630774459338</v>
+        <v>3.134744450180692</v>
       </c>
       <c r="F55" t="n" s="40">
-        <v>2568.0</v>
+        <v>2578.0</v>
       </c>
       <c r="G55" t="n" s="41">
-        <v>1.064332429811255</v>
+        <v>1.0647392875580797</v>
       </c>
       <c r="H55" t="n" s="42">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
       <c r="I55" t="n" s="42">
-        <v>595.0</v>
+        <v>597.0</v>
       </c>
       <c r="J55" t="n" s="42">
-        <v>241.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="56">
@@ -7256,31 +7256,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="38">
-        <v>517.0</v>
+        <v>519.0</v>
       </c>
       <c r="C56" t="n" s="39">
-        <v>0.2142756488366117</v>
+        <v>0.21435209086215798</v>
       </c>
       <c r="D56" t="n" s="38">
-        <v>3381.0</v>
+        <v>3401.0</v>
       </c>
       <c r="E56" t="n" s="39">
-        <v>1.4012881406510331</v>
+        <v>1.4046463603510584</v>
       </c>
       <c r="F56" t="n" s="38">
-        <v>1113.0</v>
+        <v>1120.0</v>
       </c>
       <c r="G56" t="n" s="39">
-        <v>0.4612936115186631</v>
+        <v>0.46257098606091895</v>
       </c>
       <c r="H56" t="n" s="38">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="I56" t="n" s="38">
-        <v>703.0</v>
+        <v>706.0</v>
       </c>
       <c r="J56" t="n" s="38">
-        <v>333.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="57">
@@ -7288,31 +7288,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="40">
-        <v>3848.0</v>
+        <v>3864.0</v>
       </c>
       <c r="C57" t="n" s="41">
-        <v>1.594840806041164</v>
+        <v>1.5958699019101703</v>
       </c>
       <c r="D57" t="n" s="40">
-        <v>6269.0</v>
+        <v>6295.0</v>
       </c>
       <c r="E57" t="n" s="41">
-        <v>2.5982476645197656</v>
+        <v>2.5998967475477546</v>
       </c>
       <c r="F57" t="n" s="40">
-        <v>5307.0</v>
+        <v>5333.0</v>
       </c>
       <c r="G57" t="n" s="41">
-        <v>2.1995374630094746</v>
+        <v>2.202581311306144</v>
       </c>
       <c r="H57" t="n" s="42">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="I57" t="n" s="42">
-        <v>509.0</v>
+        <v>510.0</v>
       </c>
       <c r="J57" t="n" s="42">
-        <v>324.0</v>
+        <v>326.0</v>
       </c>
     </row>
     <row r="58">
@@ -7320,31 +7320,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="38">
-        <v>5202.0</v>
+        <v>5230.0</v>
       </c>
       <c r="C58" t="n" s="39">
-        <v>2.156019197771865</v>
+        <v>2.160041300980898</v>
       </c>
       <c r="D58" t="n" s="38">
-        <v>1977.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E58" t="n" s="39">
-        <v>0.8193867654738517</v>
+        <v>0.8206504904491482</v>
       </c>
       <c r="F58" t="n" s="38">
-        <v>2746.0</v>
+        <v>2759.0</v>
       </c>
       <c r="G58" t="n" s="39">
-        <v>1.1381062508807267</v>
+        <v>1.1394940629839958</v>
       </c>
       <c r="H58" t="n" s="38">
-        <v>607.0</v>
+        <v>610.0</v>
       </c>
       <c r="I58" t="n" s="38">
-        <v>204.0</v>
+        <v>206.0</v>
       </c>
       <c r="J58" t="n" s="38">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="59">
@@ -7352,31 +7352,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="40">
-        <v>1177.0</v>
+        <v>1179.0</v>
       </c>
       <c r="C59" t="n" s="41">
-        <v>0.48781903033015855</v>
+        <v>0.4869385647909138</v>
       </c>
       <c r="D59" t="n" s="40">
-        <v>1592.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E59" t="n" s="41">
-        <v>0.6598197929359494</v>
+        <v>0.6612287041817243</v>
       </c>
       <c r="F59" t="n" s="40">
-        <v>3592.0</v>
+        <v>3616.0</v>
       </c>
       <c r="G59" t="n" s="41">
-        <v>1.4887391307951823</v>
+        <v>1.4934434692823955</v>
       </c>
       <c r="H59" t="n" s="42">
         <v>183.0</v>
       </c>
       <c r="I59" t="n" s="42">
-        <v>293.0</v>
+        <v>294.0</v>
       </c>
       <c r="J59" t="n" s="42">
-        <v>636.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="60">
@@ -7384,31 +7384,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="38">
-        <v>858.0</v>
+        <v>859.0</v>
       </c>
       <c r="C60" t="n" s="39">
-        <v>0.3556063959416109</v>
+        <v>0.3547754259163655</v>
       </c>
       <c r="D60" t="n" s="38">
-        <v>2140.0</v>
+        <v>2164.0</v>
       </c>
       <c r="E60" t="n" s="39">
-        <v>0.8869436915093792</v>
+        <v>0.8937532266391327</v>
       </c>
       <c r="F60" t="n" s="38">
-        <v>3128.0</v>
+        <v>3147.0</v>
       </c>
       <c r="G60" t="n" s="39">
-        <v>1.2964298444118403</v>
+        <v>1.2997418688693858</v>
       </c>
       <c r="H60" t="n" s="38">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="I60" t="n" s="38">
-        <v>431.0</v>
+        <v>434.0</v>
       </c>
       <c r="J60" t="n" s="38">
-        <v>634.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="61">
@@ -7416,31 +7416,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="40">
-        <v>1050.0</v>
+        <v>1054.0</v>
       </c>
       <c r="C61" t="n" s="41">
-        <v>0.43518265237609727</v>
+        <v>0.43531233866804336</v>
       </c>
       <c r="D61" t="n" s="40">
-        <v>1672.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E61" t="n" s="41">
-        <v>0.6929765664503187</v>
+        <v>0.6967475477542592</v>
       </c>
       <c r="F61" t="n" s="40">
-        <v>3385.0</v>
+        <v>3406.0</v>
       </c>
       <c r="G61" t="n" s="41">
-        <v>1.4029459793267518</v>
+        <v>1.4067114093959732</v>
       </c>
       <c r="H61" t="n" s="42">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="I61" t="n" s="42">
-        <v>305.0</v>
+        <v>307.0</v>
       </c>
       <c r="J61" t="n" s="42">
-        <v>681.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="62">
@@ -7448,28 +7448,28 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="38">
-        <v>10392.0</v>
+        <v>10413.0</v>
       </c>
       <c r="C62" t="n" s="39">
-        <v>4.307064879516574</v>
+        <v>4.300671140939597</v>
       </c>
       <c r="D62" t="n" s="38">
-        <v>11334.0</v>
+        <v>11360.0</v>
       </c>
       <c r="E62" t="n" s="39">
-        <v>4.697485887648273</v>
+        <v>4.691791430046464</v>
       </c>
       <c r="F62" t="n" s="38">
-        <v>2633.0</v>
+        <v>2643.0</v>
       </c>
       <c r="G62" t="n" s="39">
-        <v>1.0912723082916802</v>
+        <v>1.0915849251419723</v>
       </c>
       <c r="H62" t="n" s="38">
-        <v>457.0</v>
+        <v>459.0</v>
       </c>
       <c r="I62" t="n" s="38">
-        <v>526.0</v>
+        <v>528.0</v>
       </c>
       <c r="J62" t="n" s="38">
         <v>19.0</v>
@@ -7480,31 +7480,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="40">
-        <v>7609.0</v>
+        <v>7640.0</v>
       </c>
       <c r="C63" t="n" s="41">
-        <v>3.153623620885452</v>
+        <v>3.15539494062984</v>
       </c>
       <c r="D63" t="n" s="40">
-        <v>5840.0</v>
+        <v>5867.0</v>
       </c>
       <c r="E63" t="n" s="41">
-        <v>2.42044446654896</v>
+        <v>2.423128549303046</v>
       </c>
       <c r="F63" t="n" s="40">
-        <v>3403.0</v>
+        <v>3418.0</v>
       </c>
       <c r="G63" t="n" s="41">
-        <v>1.4104062533674848</v>
+        <v>1.4116675271037686</v>
       </c>
       <c r="H63" t="n" s="42">
-        <v>501.0</v>
+        <v>503.0</v>
       </c>
       <c r="I63" t="n" s="42">
-        <v>344.0</v>
+        <v>345.0</v>
       </c>
       <c r="J63" t="n" s="42">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="64">
@@ -7512,31 +7512,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="38">
-        <v>1465.0</v>
+        <v>1476.0</v>
       </c>
       <c r="C64" t="n" s="39">
-        <v>0.6071834149818881</v>
+        <v>0.6096024780588539</v>
       </c>
       <c r="D64" t="n" s="38">
-        <v>6216.0</v>
+        <v>6250.0</v>
       </c>
       <c r="E64" t="n" s="39">
-        <v>2.5762813020664956</v>
+        <v>2.581311306143521</v>
       </c>
       <c r="F64" t="n" s="38">
-        <v>1874.0</v>
+        <v>1883.0</v>
       </c>
       <c r="G64" t="n" s="39">
-        <v>0.7766974195741012</v>
+        <v>0.77769747031492</v>
       </c>
       <c r="H64" t="n" s="38">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="I64" t="n" s="38">
-        <v>781.0</v>
+        <v>783.0</v>
       </c>
       <c r="J64" t="n" s="38">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="65">
@@ -7544,31 +7544,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="40">
-        <v>9983.0</v>
+        <v>10019.0</v>
       </c>
       <c r="C65" t="n" s="41">
-        <v>4.137550874924361</v>
+        <v>4.13794527620031</v>
       </c>
       <c r="D65" t="n" s="40">
-        <v>8242.0</v>
+        <v>8274.0</v>
       </c>
       <c r="E65" t="n" s="41">
-        <v>3.4159765913178983</v>
+        <v>3.4172431595250385</v>
       </c>
       <c r="F65" t="n" s="40">
-        <v>9385.0</v>
+        <v>9410.0</v>
       </c>
       <c r="G65" t="n" s="41">
-        <v>3.88970399290445</v>
+        <v>3.8864223025296853</v>
       </c>
       <c r="H65" t="n" s="42">
-        <v>536.0</v>
+        <v>539.0</v>
       </c>
       <c r="I65" t="n" s="42">
-        <v>234.0</v>
+        <v>235.0</v>
       </c>
       <c r="J65" t="n" s="42">
-        <v>348.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="67">
@@ -7576,31 +7576,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="40">
-        <v>241278.0</v>
+        <v>242125.0</v>
       </c>
       <c r="C67" t="n" s="41">
-        <v>100.00000000000001</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="D67" t="n" s="40">
-        <v>241278.0</v>
+        <v>242125.0</v>
       </c>
       <c r="E67" t="n" s="41">
-        <v>99.99999999999997</v>
+        <v>100.0</v>
       </c>
       <c r="F67" t="n" s="40">
-        <v>241278.0</v>
+        <v>242125.0</v>
       </c>
       <c r="G67" t="n" s="41">
-        <v>100.0</v>
+        <v>100.00000000000004</v>
       </c>
       <c r="H67" t="n" s="40">
-        <v>120825.0</v>
+        <v>121672.0</v>
       </c>
       <c r="I67" t="n" s="40">
-        <v>120445.0</v>
+        <v>121215.0</v>
       </c>
       <c r="J67" t="n" s="40">
-        <v>121848.0</v>
+        <v>122667.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -7609,16 +7609,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="47">
-        <v>32815.0</v>
+        <v>32891.0</v>
       </c>
       <c r="C71" t="n" s="48">
-        <v>9.061662938723662</v>
+        <v>9.050858278160275</v>
       </c>
       <c r="D71" t="n" s="47">
-        <v>33250.0</v>
+        <v>33310.0</v>
       </c>
       <c r="E71" t="n" s="48">
-        <v>9.181785546626902</v>
+        <v>9.16615758856583</v>
       </c>
     </row>
     <row r="72">
@@ -7626,16 +7626,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="45">
-        <v>26322.0</v>
+        <v>26398.0</v>
       </c>
       <c r="C72" t="n" s="46">
-        <v>7.268660425813935</v>
+        <v>7.2641317329018555</v>
       </c>
       <c r="D72" t="n" s="45">
-        <v>25459.0</v>
+        <v>25547.0</v>
       </c>
       <c r="E72" t="n" s="46">
-        <v>7.030348217490956</v>
+        <v>7.0299558065173</v>
       </c>
     </row>
     <row r="73">
@@ -7643,16 +7643,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="47">
-        <v>15323.0</v>
+        <v>15384.0</v>
       </c>
       <c r="C73" t="n" s="48">
-        <v>4.231353381382377</v>
+        <v>4.233328380141001</v>
       </c>
       <c r="D73" t="n" s="47">
-        <v>15134.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E73" t="n" s="48">
-        <v>4.179162179327866</v>
+        <v>4.181595038001992</v>
       </c>
     </row>
     <row r="74">
@@ -7660,16 +7660,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="45">
-        <v>36293.0</v>
+        <v>36382.0</v>
       </c>
       <c r="C74" t="n" s="46">
-        <v>10.022091514097148</v>
+        <v>10.011502413305376</v>
       </c>
       <c r="D74" t="n" s="45">
-        <v>34885.0</v>
+        <v>34960.0</v>
       </c>
       <c r="E74" t="n" s="46">
-        <v>9.633280865987352</v>
+        <v>9.620200219041172</v>
       </c>
     </row>
     <row r="75">
@@ -7677,16 +7677,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="47">
-        <v>27148.0</v>
+        <v>27232.0</v>
       </c>
       <c r="C75" t="n" s="48">
-        <v>7.496755308866981</v>
+        <v>7.493629644305755</v>
       </c>
       <c r="D75" t="n" s="47">
-        <v>27800.0</v>
+        <v>27879.0</v>
       </c>
       <c r="E75" t="n" s="48">
-        <v>7.676801148758733</v>
+        <v>7.671669390922449</v>
       </c>
     </row>
     <row r="76">
@@ -7694,16 +7694,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="45">
-        <v>26351.0</v>
+        <v>26447.0</v>
       </c>
       <c r="C76" t="n" s="46">
-        <v>7.27666859967415</v>
+        <v>7.277615423140214</v>
       </c>
       <c r="D76" t="n" s="45">
-        <v>26936.0</v>
+        <v>27036.0</v>
       </c>
       <c r="E76" t="n" s="46">
-        <v>7.438212796509541</v>
+        <v>7.4396948833523195</v>
       </c>
     </row>
     <row r="77">
@@ -7711,16 +7711,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="47">
-        <v>7572.0</v>
+        <v>7610.0</v>
       </c>
       <c r="C77" t="n" s="48">
-        <v>2.0909618092950044</v>
+        <v>2.094099647222635</v>
       </c>
       <c r="D77" t="n" s="47">
-        <v>7463.0</v>
+        <v>7496.0</v>
       </c>
       <c r="E77" t="n" s="48">
-        <v>2.060862121337641</v>
+        <v>2.062729429117066</v>
       </c>
     </row>
     <row r="78">
@@ -7728,16 +7728,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="45">
-        <v>29133.0</v>
+        <v>29251.0</v>
       </c>
       <c r="C78" t="n" s="46">
-        <v>8.044901002402453</v>
+        <v>8.049212717596491</v>
       </c>
       <c r="D78" t="n" s="45">
-        <v>29749.0</v>
+        <v>29864.0</v>
       </c>
       <c r="E78" t="n" s="46">
-        <v>8.215005660950487</v>
+        <v>8.217896434251875</v>
       </c>
     </row>
     <row r="79">
@@ -7745,16 +7745,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="47">
-        <v>14002.0</v>
+        <v>14057.0</v>
       </c>
       <c r="C79" t="n" s="48">
-        <v>3.8665672548532295</v>
+        <v>3.868168034298105</v>
       </c>
       <c r="D79" t="n" s="47">
-        <v>13733.0</v>
+        <v>13802.0</v>
       </c>
       <c r="E79" t="n" s="48">
-        <v>3.7922845387015713</v>
+        <v>3.79799780958828</v>
       </c>
     </row>
     <row r="80">
@@ -7762,16 +7762,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="45">
-        <v>13544.0</v>
+        <v>13607.0</v>
       </c>
       <c r="C80" t="n" s="46">
-        <v>3.7400933366470603</v>
+        <v>3.744338225986649</v>
       </c>
       <c r="D80" t="n" s="45">
-        <v>12740.0</v>
+        <v>12804.0</v>
       </c>
       <c r="E80" t="n" s="46">
-        <v>3.5180736199707288</v>
+        <v>3.523370812488649</v>
       </c>
     </row>
     <row r="81">
@@ -7779,16 +7779,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="47">
-        <v>9982.0</v>
+        <v>10057.0</v>
       </c>
       <c r="C81" t="n" s="48">
-        <v>2.7564686714715707</v>
+        <v>2.7674586270851567</v>
       </c>
       <c r="D81" t="n" s="47">
-        <v>10595.0</v>
+        <v>10662.0</v>
       </c>
       <c r="E81" t="n" s="48">
-        <v>2.9257448982409633</v>
+        <v>2.933940924926115</v>
       </c>
     </row>
     <row r="82">
@@ -7796,16 +7796,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="45">
-        <v>10287.0</v>
+        <v>10351.0</v>
       </c>
       <c r="C82" t="n" s="46">
-        <v>2.8406925689669458</v>
+        <v>2.8483607685153083</v>
       </c>
       <c r="D82" t="n" s="45">
-        <v>9745.0</v>
+        <v>9795.0</v>
       </c>
       <c r="E82" t="n" s="46">
-        <v>2.6910225609587717</v>
+        <v>2.6953621609127083</v>
       </c>
     </row>
     <row r="83">
@@ -7813,16 +7813,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="47">
-        <v>34763.0</v>
+        <v>34833.0</v>
       </c>
       <c r="C83" t="n" s="48">
-        <v>9.599591306989202</v>
+        <v>9.585252695362161</v>
       </c>
       <c r="D83" t="n" s="47">
-        <v>35541.0</v>
+        <v>35635.0</v>
       </c>
       <c r="E83" t="n" s="48">
-        <v>9.814431281583962</v>
+        <v>9.805944931508357</v>
       </c>
     </row>
     <row r="84">
@@ -7830,16 +7830,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="45">
-        <v>25731.0</v>
+        <v>25823.0</v>
       </c>
       <c r="C84" t="n" s="46">
-        <v>7.1054593654212574</v>
+        <v>7.1059047556149935</v>
       </c>
       <c r="D84" t="n" s="45">
-        <v>25069.0</v>
+        <v>25153.0</v>
       </c>
       <c r="E84" t="n" s="46">
-        <v>6.922652086267362</v>
+        <v>6.921535929906825</v>
       </c>
     </row>
     <row r="85">
@@ -7847,16 +7847,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="47">
-        <v>13936.0</v>
+        <v>14012.0</v>
       </c>
       <c r="C85" t="n" s="48">
-        <v>3.848341755723083</v>
+        <v>3.8557850534669598</v>
       </c>
       <c r="D85" t="n" s="47">
-        <v>14583.0</v>
+        <v>14677.0</v>
       </c>
       <c r="E85" t="n" s="48">
-        <v>4.027006875983763</v>
+        <v>4.0387779924161125</v>
       </c>
     </row>
     <row r="86">
@@ -7864,16 +7864,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="45">
-        <v>38928.0</v>
+        <v>39067.0</v>
       </c>
       <c r="C86" t="n" s="46">
-        <v>10.749730759671941</v>
+        <v>10.750353602897068</v>
       </c>
       <c r="D86" t="n" s="45">
-        <v>39448.0</v>
+        <v>39586.0</v>
       </c>
       <c r="E86" t="n" s="46">
-        <v>10.893325601303399</v>
+        <v>10.893170648482947</v>
       </c>
     </row>
     <row r="88">
@@ -7881,16 +7881,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="47">
-        <v>362130.0</v>
+        <v>363402.0</v>
       </c>
       <c r="C88" t="n" s="48">
-        <v>100.0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="D88" t="n" s="47">
-        <v>362130.0</v>
+        <v>363402.0</v>
       </c>
       <c r="E88" t="n" s="48">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>
